--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999978923455</v>
+        <v>0.9999892339301442</v>
       </c>
       <c r="E2">
-        <v>0.9999999978923455</v>
+        <v>0.9999892339301442</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999934764134</v>
+        <v>0.9999999980687526</v>
       </c>
       <c r="E3">
-        <v>0.9999999934764134</v>
+        <v>0.9999999980687526</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.1439505078406998</v>
+        <v>2.709214852488288E-05</v>
       </c>
       <c r="E4">
-        <v>0.1439505078406998</v>
+        <v>2.709214852488288E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.001735813793402688</v>
+        <v>0.04608201996621249</v>
       </c>
       <c r="E5">
-        <v>0.001735813793402688</v>
+        <v>0.04608201996621249</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.00640387742686528</v>
+        <v>0.01111472498919494</v>
       </c>
       <c r="E6">
-        <v>0.00640387742686528</v>
+        <v>0.01111472498919494</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0.01932186902815045</v>
+        <v>0.9945513796295906</v>
       </c>
       <c r="E7">
-        <v>0.9806781309718495</v>
+        <v>0.005448620370409385</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9949131133082644</v>
+        <v>0.9999999957121937</v>
       </c>
       <c r="E9">
-        <v>0.005086886691735626</v>
+        <v>4.287806332214927E-09</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.180210588545987E-05</v>
+        <v>2.37341036269836E-06</v>
       </c>
       <c r="E10">
-        <v>0.9999681978941145</v>
+        <v>0.9999976265896373</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.631102629113261E-10</v>
+        <v>1.784662418168611E-05</v>
       </c>
       <c r="E11">
-        <v>0.9999999996368898</v>
+        <v>0.9999821533758183</v>
       </c>
       <c r="F11">
-        <v>7.503302574157715</v>
+        <v>5.54529333114624</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
